--- a/biology/Histoire de la zoologie et de la botanique/Georg_Baur/Georg_Baur.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Georg_Baur/Georg_Baur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Georg Hermann Carl Ludwig Baur est un  zoologiste bavarois, né le 4 janvier 1859 à Weisswasser en royaume de Bohême et mort le 25 juin 1898 à Munich[réf. nécessaire].
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a la chance de suivre les cours des plus grands anatomistes et paléontologues allemands de l’époque comme Carl Theodor Ernst von Siebold (1804-1885) et Karl Alfred von Zittel (1839-1904) de l’université de Munich, Rudolf Leuckart (1822-1898) et Julius Victor Carus (1823-1903) de l’université de Leipzig.
 Il obtient son doctorat à Munich en 1882 et est, pendant quelque temps, assistant en histologie. Il obtient, en 1884, le poste d’assistant d’Othniel Charles Marsh (1831-1899) au Yale College aux  États-Unis. Il quitte ses fonctions en 1890 à la suite de dispute grandissante avec Marsh et parce qu’il ne peut obtenir un poste de professeur d’anatomie.
